--- a/Training exercise/Training exercise-Southampton/SW4e_results.xlsx
+++ b/Training exercise/Training exercise-Southampton/SW4e_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Tools\MATLAB\MUImodels2\muiApps\Asmita\Training exercise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab Code\MUImodels\muiApps\Asmita\Training exercise\Training exercise-Southampton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2245A46-8386-471A-BE55-59633D82D309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989B3109-72EC-4114-BF0F-4F64A8EBF9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7300" yWindow="4080" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Year</t>
   </si>
@@ -57,9 +57,6 @@
     <t>+area change =</t>
   </si>
   <si>
-    <t>(*) includes the perturbation due to the dredge in 2000.</t>
-  </si>
-  <si>
     <t>Results using v1.4</t>
   </si>
   <si>
@@ -82,6 +79,12 @@
   </si>
   <si>
     <t>5 – As 4, with reclamation in 2020*</t>
+  </si>
+  <si>
+    <t>% change from</t>
+  </si>
+  <si>
+    <t>1900 volume</t>
   </si>
 </sst>
 </file>
@@ -128,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -140,14 +143,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,26 +490,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="13.1328125" customWidth="1"/>
-    <col min="3" max="3" width="12.86328125" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="14.265625" customWidth="1"/>
-    <col min="9" max="9" width="10.73046875" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -522,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -539,14 +543,14 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2000</v>
+        <v>2020</v>
       </c>
       <c r="B4" s="4">
         <f>B2*200*2</f>
@@ -567,9 +571,9 @@
         <v>7200000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -590,9 +594,9 @@
         <v>-200000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -601,348 +605,328 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="C8" s="2">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
       <c r="F8" s="2">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G8" s="2">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>64600000</v>
+        <v>64011700</v>
       </c>
       <c r="C10" s="4">
-        <v>64700000</v>
+        <v>64769700</v>
       </c>
       <c r="D10" s="4">
         <f>C10-B10</f>
-        <v>100000</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
-        <v>50760000</v>
-      </c>
-      <c r="G10" s="4">
-        <v>4750000</v>
+        <v>758000</v>
+      </c>
+      <c r="E10" s="8">
+        <f>(D10)/B$10</f>
+        <v>1.1841585210203759E-2</v>
+      </c>
+      <c r="F10">
+        <v>57129700</v>
+      </c>
+      <c r="G10">
+        <v>44123700</v>
       </c>
       <c r="H10" s="4">
-        <f>G10-F10</f>
-        <v>-46010000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H10:H14" si="0">G10-F10</f>
+        <v>-13006000</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" ref="I10:I14" si="1">(H10)/F$10</f>
+        <v>-0.22765741812052226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <v>65320700</v>
+      </c>
+      <c r="C11">
+        <v>66900400</v>
+      </c>
+      <c r="D11" s="4">
+        <f>C11-B11</f>
+        <v>1579700</v>
+      </c>
+      <c r="E11" s="8">
+        <f>(D11)/B$10</f>
+        <v>2.4678300998098784E-2</v>
+      </c>
+      <c r="F11">
+        <v>59209900</v>
+      </c>
+      <c r="G11" s="4">
+        <v>46238000</v>
+      </c>
+      <c r="H11" s="4">
+        <f>G11-F11</f>
+        <v>-12971900</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.22706053068719073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4">
-        <v>70700000</v>
-      </c>
-      <c r="C11" s="4">
-        <v>68410000</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" ref="D11:D12" si="0">C11-B11</f>
-        <v>-2290000</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
-        <v>58600000</v>
-      </c>
-      <c r="G11" s="4">
-        <v>53170000</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" ref="H11:H12" si="1">G11-F11</f>
-        <v>-5430000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B12" s="4">
+        <v>64011700</v>
+      </c>
+      <c r="C12" s="4">
+        <v>72496900</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" ref="D12:D14" si="2">C12-B12</f>
+        <v>8485200</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" ref="E12:E15" si="3">(D12)/B$10</f>
+        <v>0.13255701692034424</v>
+      </c>
+      <c r="F12">
+        <v>57129700</v>
+      </c>
+      <c r="G12" s="4">
+        <v>53119900</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>-4009800</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="1"/>
+        <v>-7.0187660708878219E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4">
-        <v>74110000</v>
-      </c>
-      <c r="C12" s="4">
-        <v>73300000</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B13" s="4">
+        <v>64011700</v>
+      </c>
+      <c r="C13" s="4">
+        <v>74519500</v>
+      </c>
+      <c r="D13" s="4">
+        <f>C13-B13</f>
+        <v>10507800</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="3"/>
+        <v>0.16415436553005153</v>
+      </c>
+      <c r="F13">
+        <v>57129700</v>
+      </c>
+      <c r="G13" s="4">
+        <v>55142400</v>
+      </c>
+      <c r="H13" s="4">
+        <f>G13-F13</f>
+        <v>-1987300</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="1"/>
+        <v>-3.4785759421106711E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4">
+        <v>64011700</v>
+      </c>
+      <c r="C14" s="4">
+        <v>74023300</v>
+      </c>
+      <c r="D14" s="4">
+        <f>C14-B14</f>
+        <v>10011600</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="3"/>
+        <v>0.15640265763915034</v>
+      </c>
+      <c r="F14">
+        <v>57129700</v>
+      </c>
+      <c r="G14" s="4">
+        <v>54674700</v>
+      </c>
+      <c r="H14" s="4">
         <f t="shared" si="0"/>
-        <v>-810000</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4">
-        <v>60700000</v>
-      </c>
-      <c r="G12" s="4">
-        <v>56910000</v>
-      </c>
-      <c r="H12" s="4">
+        <v>-2455000</v>
+      </c>
+      <c r="I14" s="8">
         <f t="shared" si="1"/>
-        <v>-3790000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4">
-        <v>74110000</v>
-      </c>
-      <c r="C13" s="4">
-        <v>76200000</v>
-      </c>
-      <c r="D13" s="4">
-        <f>C13-B13+B$4+C$4</f>
-        <v>9290000</v>
-      </c>
-      <c r="E13" s="4">
-        <f>C13-B13</f>
-        <v>2090000</v>
-      </c>
-      <c r="F13" s="4">
-        <v>60700000</v>
-      </c>
-      <c r="G13" s="4">
-        <v>59800000</v>
-      </c>
-      <c r="H13" s="4">
-        <f>G13-F13+B$4+C$4</f>
-        <v>6300000</v>
-      </c>
-      <c r="I13" s="4">
-        <f>G13-F13</f>
-        <v>-900000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4">
-        <v>74110000</v>
-      </c>
-      <c r="C14" s="4">
-        <v>75600000</v>
-      </c>
-      <c r="D14" s="4">
-        <f>C14-B14+B$4+C$4</f>
-        <v>8690000</v>
-      </c>
-      <c r="E14" s="4">
-        <f>C14-B14</f>
-        <v>1490000</v>
-      </c>
-      <c r="F14" s="4">
-        <v>60700000</v>
-      </c>
-      <c r="G14" s="4">
-        <v>59320000</v>
-      </c>
-      <c r="H14" s="4">
-        <f>G14-F14+B$4+C$4</f>
-        <v>5820000</v>
-      </c>
-      <c r="I14" s="4">
-        <f>G14-F14</f>
-        <v>-1380000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+        <v>-4.2972394393809177E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <f>C14-C12</f>
+        <v>1526400</v>
+      </c>
+      <c r="D15" s="4">
+        <f>D13-D12</f>
+        <v>2022600</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="3"/>
+        <v>3.1597348609707289E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4">
+        <v>64011700</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="F17">
+        <v>57129700</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="4"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4">
+        <v>64011700</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
+      <c r="F18">
+        <v>57129700</v>
+      </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4">
-        <v>64600000</v>
-      </c>
-      <c r="C19" s="4">
-        <v>64700000</v>
-      </c>
-      <c r="D19" s="4">
-        <f>C19-B19</f>
-        <v>100000</v>
-      </c>
+        <v>64011700</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4">
-        <v>50760000</v>
-      </c>
-      <c r="G19" s="4">
-        <v>4750000</v>
-      </c>
-      <c r="H19" s="4">
-        <f>G19-F19</f>
-        <v>-46010000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>57129700</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="4">
-        <v>70700000</v>
-      </c>
-      <c r="C20" s="4">
-        <v>68410000</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" ref="D20:D21" si="2">C20-B20</f>
-        <v>-2290000</v>
-      </c>
+        <v>64011700</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4">
-        <v>58600000</v>
-      </c>
-      <c r="G20" s="4">
-        <v>53170000</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" ref="H20:H21" si="3">G20-F20</f>
-        <v>-5430000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>57129700</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
-        <v>91700000</v>
-      </c>
-      <c r="C21" s="4">
-        <v>102000000</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="2"/>
-        <v>10300000</v>
-      </c>
+        <v>64011700</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4">
-        <v>78330000</v>
-      </c>
-      <c r="G21" s="4">
-        <v>85900000</v>
-      </c>
-      <c r="H21" s="4">
-        <f t="shared" si="3"/>
-        <v>7570000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="4">
-        <v>91700000</v>
-      </c>
-      <c r="C22" s="4">
-        <v>105910000</v>
-      </c>
-      <c r="D22" s="4">
-        <f>C22-B22+B$4+C$4</f>
-        <v>21410000</v>
-      </c>
-      <c r="E22" s="4">
-        <f>C22-B22</f>
-        <v>14210000</v>
-      </c>
-      <c r="F22" s="4">
-        <v>78330000</v>
-      </c>
-      <c r="G22" s="4">
-        <v>89500000</v>
-      </c>
-      <c r="H22" s="4">
-        <f>G22-F22+B$4+C$4</f>
-        <v>18370000</v>
-      </c>
-      <c r="I22" s="4">
-        <f>G22-F22</f>
-        <v>11170000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="4">
-        <v>91700000</v>
-      </c>
-      <c r="C23" s="4">
-        <v>105300000</v>
-      </c>
-      <c r="D23" s="4">
-        <f>C23-B23+B$4+C$4</f>
-        <v>20800000</v>
-      </c>
-      <c r="E23" s="4">
-        <f>C23-B23</f>
-        <v>13600000</v>
-      </c>
-      <c r="F23" s="4">
-        <v>78330000</v>
-      </c>
-      <c r="G23" s="4">
-        <v>89000000</v>
-      </c>
-      <c r="H23" s="4">
-        <f>G23-F23+B$4+C$4</f>
-        <v>17870000</v>
-      </c>
-      <c r="I23" s="4">
-        <f>G23-F23</f>
-        <v>10670000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
+      <c r="F21">
+        <v>57129700</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Training exercise/Training exercise-Southampton/SW4e_results.xlsx
+++ b/Training exercise/Training exercise-Southampton/SW4e_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab Code\MUImodels\muiApps\Asmita\Training exercise\Training exercise-Southampton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989B3109-72EC-4114-BF0F-4F64A8EBF9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D78646B-27D2-4378-BD7D-C006A428DFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7300" yWindow="4080" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9940" yWindow="2180" windowWidth="21940" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Year</t>
   </si>
@@ -57,9 +57,6 @@
     <t>+area change =</t>
   </si>
   <si>
-    <t>Results using v1.4</t>
-  </si>
-  <si>
     <t>SW4e model - Case (excl maintenance)</t>
   </si>
   <si>
@@ -75,16 +72,31 @@
     <t>3 – historic changes + slr</t>
   </si>
   <si>
-    <t>4 – As 3, with dredge in 2000*</t>
-  </si>
-  <si>
-    <t>5 – As 4, with reclamation in 2020*</t>
-  </si>
-  <si>
     <t>% change from</t>
   </si>
   <si>
     <t>1900 volume</t>
+  </si>
+  <si>
+    <t>Results using v3.1</t>
+  </si>
+  <si>
+    <t>Inner Channel</t>
+  </si>
+  <si>
+    <t>Outer Flat</t>
+  </si>
+  <si>
+    <t>Inner Flat</t>
+  </si>
+  <si>
+    <t>Outer Channel</t>
+  </si>
+  <si>
+    <t>4 – As 3, with dredge in 2020</t>
+  </si>
+  <si>
+    <t>5 – As 4, with reclamation in 2030</t>
   </si>
 </sst>
 </file>
@@ -490,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -509,7 +521,7 @@
     <col min="9" max="9" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -526,397 +538,493 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B3" s="5">
         <v>10000</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C3" s="5">
         <v>8000</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D3" s="5">
         <v>10000</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E3" s="5">
         <v>8000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2020</v>
       </c>
-      <c r="B4" s="4">
-        <f>B2*200*2</f>
+      <c r="B5" s="4">
+        <f>B3*200*2</f>
         <v>4000000</v>
       </c>
-      <c r="C4" s="4">
-        <f>C2*200*2</f>
+      <c r="C5" s="4">
+        <f>C3*200*2</f>
         <v>3200000</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <f>B4+C4</f>
-        <v>7200000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2030</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <f>B5+C5</f>
+        <v>7200000</v>
+      </c>
+      <c r="J5" s="4">
+        <f>C5+280000</f>
+        <v>3480000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2030</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
         <v>-500000</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G6" s="7">
         <v>-200000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
         <v>1900</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <v>2100</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2">
         <v>1900</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G9" s="2">
         <v>2100</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <v>64011700</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="4">
         <v>64769700</v>
-      </c>
-      <c r="D10" s="4">
-        <f>C10-B10</f>
-        <v>758000</v>
-      </c>
-      <c r="E10" s="8">
-        <f>(D10)/B$10</f>
-        <v>1.1841585210203759E-2</v>
-      </c>
-      <c r="F10">
-        <v>57129700</v>
-      </c>
-      <c r="G10">
-        <v>44123700</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" ref="H10:H14" si="0">G10-F10</f>
-        <v>-13006000</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" ref="I10:I14" si="1">(H10)/F$10</f>
-        <v>-0.22765741812052226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4">
-        <v>65320700</v>
-      </c>
-      <c r="C11">
-        <v>66900400</v>
       </c>
       <c r="D11" s="4">
         <f>C11-B11</f>
+        <v>758000</v>
+      </c>
+      <c r="E11" s="8">
+        <f>(D11)/B$11</f>
+        <v>1.1841585210203759E-2</v>
+      </c>
+      <c r="F11">
+        <v>57129700</v>
+      </c>
+      <c r="G11">
+        <v>44123700</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" ref="H11:H15" si="0">G11-F11</f>
+        <v>-13006000</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" ref="I11:I15" si="1">(H11)/F$11</f>
+        <v>-0.22765741812052226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>65320700</v>
+      </c>
+      <c r="C12">
+        <v>66900400</v>
+      </c>
+      <c r="D12" s="4">
+        <f>C12-B12</f>
         <v>1579700</v>
       </c>
-      <c r="E11" s="8">
-        <f>(D11)/B$10</f>
+      <c r="E12" s="8">
+        <f>(D12)/B$11</f>
         <v>2.4678300998098784E-2</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>59209900</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G12" s="4">
         <v>46238000</v>
       </c>
-      <c r="H11" s="4">
-        <f>G11-F11</f>
+      <c r="H12" s="4">
+        <f>G12-F12</f>
         <v>-12971900</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I12" s="8">
         <f t="shared" si="1"/>
         <v>-0.22706053068719073</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
         <v>64011700</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C13" s="4">
         <v>72496900</v>
       </c>
-      <c r="D12" s="4">
-        <f t="shared" ref="D12:D14" si="2">C12-B12</f>
+      <c r="D13" s="4">
+        <f t="shared" ref="D13" si="2">C13-B13</f>
         <v>8485200</v>
       </c>
-      <c r="E12" s="8">
-        <f t="shared" ref="E12:E15" si="3">(D12)/B$10</f>
+      <c r="E13" s="8">
+        <f t="shared" ref="E13:E16" si="3">(D13)/B$11</f>
         <v>0.13255701692034424</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>57129700</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G13" s="4">
         <v>53119900</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H13" s="4">
         <f t="shared" si="0"/>
         <v>-4009800</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I13" s="8">
         <f t="shared" si="1"/>
         <v>-7.0187660708878219E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4">
         <v>64011700</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="4">
         <v>74519500</v>
       </c>
-      <c r="D13" s="4">
-        <f>C13-B13</f>
+      <c r="D14" s="4">
+        <f>C14-B14</f>
         <v>10507800</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E14" s="8">
         <f t="shared" si="3"/>
         <v>0.16415436553005153</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>57129700</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="4">
         <v>55142400</v>
       </c>
-      <c r="H13" s="4">
-        <f>G13-F13</f>
+      <c r="H14" s="4">
+        <f>G14-F14</f>
         <v>-1987300</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I14" s="8">
         <f t="shared" si="1"/>
         <v>-3.4785759421106711E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4">
         <v>64011700</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C15" s="4">
         <v>74023300</v>
       </c>
-      <c r="D14" s="4">
-        <f>C14-B14</f>
+      <c r="D15" s="4">
+        <f>C15-B15</f>
         <v>10011600</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E15" s="8">
         <f t="shared" si="3"/>
         <v>0.15640265763915034</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>57129700</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G15" s="4">
         <v>54674700</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H15" s="4">
         <f t="shared" si="0"/>
         <v>-2455000</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I15" s="8">
         <f t="shared" si="1"/>
         <v>-4.2972394393809177E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="4">
-        <f>C14-C12</f>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
+        <f>C15-C13</f>
         <v>1526400</v>
       </c>
-      <c r="D15" s="4">
-        <f>D13-D12</f>
+      <c r="D16" s="4">
+        <f>D14-D13</f>
         <v>2022600</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="8">
         <f t="shared" si="3"/>
         <v>3.1597348609707289E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="4">
-        <v>64011700</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17">
-        <v>57129700</v>
+    <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" s="4">
         <v>64011700</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="4">
+        <v>64769700</v>
+      </c>
+      <c r="D18" s="4">
+        <f>C18-B18</f>
+        <v>758000</v>
+      </c>
+      <c r="E18" s="8">
+        <f>(D18)/B$11</f>
+        <v>1.1841585210203759E-2</v>
+      </c>
       <c r="F18">
         <v>57129700</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="G18">
+        <v>44123700</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" ref="H18:H19" si="4">G18-F18</f>
+        <v>-13006000</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" ref="I18:I19" si="5">(H18)/F$11</f>
+        <v>-0.22765741812052226</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19" s="4">
         <v>64011700</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="C19">
+        <v>66900400</v>
+      </c>
+      <c r="D19" s="4">
+        <f>C19-B19</f>
+        <v>2888700</v>
+      </c>
+      <c r="E19" s="8">
+        <f>(D19)/B$11</f>
+        <v>4.512768759461161E-2</v>
+      </c>
       <c r="F19">
         <v>57129700</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="G19" s="4">
+        <v>46238000</v>
+      </c>
+      <c r="H19" s="4">
+        <f>G19-F19</f>
+        <v>-10891700</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="5"/>
+        <v>-0.19064864685093744</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" s="4">
         <v>64011700</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="C20" s="4">
+        <v>111095000</v>
+      </c>
+      <c r="D20" s="4">
+        <f>C20-B20</f>
+        <v>47083300</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" ref="E20:E22" si="6">(D20)/B$11</f>
+        <v>0.73554209621053657</v>
+      </c>
       <c r="F20">
         <v>57129700</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="G20" s="4">
+        <v>91717700</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" ref="H20:H22" si="7">G20-F20</f>
+        <v>34588000</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" ref="I20:I22" si="8">(H20)/F$11</f>
+        <v>0.60542940011937751</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4">
         <v>64011700</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="C21" s="4">
+        <v>114667000</v>
+      </c>
+      <c r="D21" s="4">
+        <f>C21-B21</f>
+        <v>50655300</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="6"/>
+        <v>0.79134439485281594</v>
+      </c>
       <c r="F21">
         <v>57129700</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="G21" s="4">
+        <v>95290300</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="7"/>
+        <v>38160600</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="8"/>
+        <v>0.66796429877979402</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>64011700</v>
+      </c>
+      <c r="C22" s="4">
+        <v>114116000</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" ref="D22" si="9">C22-B22</f>
+        <v>50104300</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="6"/>
+        <v>0.78273659346650692</v>
+      </c>
+      <c r="F22">
+        <v>57129700</v>
+      </c>
+      <c r="G22" s="4">
+        <v>94767200</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="7"/>
+        <v>37637500</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="8"/>
+        <v>0.6588079405283066</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
@@ -928,6 +1036,16 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Training exercise/Training exercise-Southampton/SW4e_results.xlsx
+++ b/Training exercise/Training exercise-Southampton/SW4e_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab Code\MUImodels\muiApps\Asmita\Training exercise\Training exercise-Southampton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D78646B-27D2-4378-BD7D-C006A428DFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD063B08-DD0C-474B-A772-5ABD9DFD22E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9940" yWindow="2180" windowWidth="21940" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13950" yWindow="6640" windowWidth="21940" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -667,7 +667,7 @@
     </row>
     <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -694,10 +694,10 @@
         <f>(D11)/B$11</f>
         <v>1.1841585210203759E-2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>57129700</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>44123700</v>
       </c>
       <c r="H11" s="4">
@@ -716,7 +716,7 @@
       <c r="B12" s="4">
         <v>65320700</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>66900400</v>
       </c>
       <c r="D12" s="4">
@@ -727,7 +727,7 @@
         <f>(D12)/B$11</f>
         <v>2.4678300998098784E-2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>59209900</v>
       </c>
       <c r="G12" s="4">
@@ -760,7 +760,7 @@
         <f t="shared" ref="E13:E16" si="3">(D13)/B$11</f>
         <v>0.13255701692034424</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>57129700</v>
       </c>
       <c r="G13" s="4">
@@ -793,7 +793,7 @@
         <f t="shared" si="3"/>
         <v>0.16415436553005153</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>57129700</v>
       </c>
       <c r="G14" s="4">
@@ -826,7 +826,7 @@
         <f t="shared" si="3"/>
         <v>0.15640265763915034</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>57129700</v>
       </c>
       <c r="G15" s="4">
@@ -857,7 +857,7 @@
     </row>
     <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -879,14 +879,14 @@
         <f>(D18)/B$11</f>
         <v>1.1841585210203759E-2</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>57129700</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="4">
         <v>44123700</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" ref="H18:H19" si="4">G18-F18</f>
+        <f t="shared" ref="H18" si="4">G18-F18</f>
         <v>-13006000</v>
       </c>
       <c r="I18" s="8">
@@ -901,7 +901,7 @@
       <c r="B19" s="4">
         <v>64011700</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>66900400</v>
       </c>
       <c r="D19" s="4">
@@ -912,7 +912,7 @@
         <f>(D19)/B$11</f>
         <v>4.512768759461161E-2</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>57129700</v>
       </c>
       <c r="G19" s="4">
@@ -945,7 +945,7 @@
         <f t="shared" ref="E20:E22" si="6">(D20)/B$11</f>
         <v>0.73554209621053657</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>57129700</v>
       </c>
       <c r="G20" s="4">
@@ -978,7 +978,7 @@
         <f t="shared" si="6"/>
         <v>0.79134439485281594</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>57129700</v>
       </c>
       <c r="G21" s="4">
@@ -1011,7 +1011,7 @@
         <f t="shared" si="6"/>
         <v>0.78273659346650692</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>57129700</v>
       </c>
       <c r="G22" s="4">

--- a/Training exercise/Training exercise-Southampton/SW4e_results.xlsx
+++ b/Training exercise/Training exercise-Southampton/SW4e_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab Code\MUImodels\muiApps\Asmita\Training exercise\Training exercise-Southampton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD063B08-DD0C-474B-A772-5ABD9DFD22E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047EF121-6672-4328-A08D-1B58E1C20F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="6640" windowWidth="21940" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10480" yWindow="2500" windowWidth="21940" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -899,32 +899,32 @@
         <v>11</v>
       </c>
       <c r="B19" s="4">
-        <v>64011700</v>
+        <v>65320700</v>
       </c>
       <c r="C19" s="4">
         <v>66900400</v>
       </c>
       <c r="D19" s="4">
         <f>C19-B19</f>
-        <v>2888700</v>
+        <v>1579700</v>
       </c>
       <c r="E19" s="8">
         <f>(D19)/B$11</f>
-        <v>4.512768759461161E-2</v>
+        <v>2.4678300998098784E-2</v>
       </c>
       <c r="F19" s="4">
-        <v>57129700</v>
+        <v>59209900</v>
       </c>
       <c r="G19" s="4">
         <v>46238000</v>
       </c>
       <c r="H19" s="4">
         <f>G19-F19</f>
-        <v>-10891700</v>
+        <v>-12971900</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" si="5"/>
-        <v>-0.19064864685093744</v>
+        <v>-0.22706053068719073</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">

--- a/Training exercise/Training exercise-Southampton/SW4e_results.xlsx
+++ b/Training exercise/Training exercise-Southampton/SW4e_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab Code\MUImodels\muiApps\Asmita\Training exercise\Training exercise-Southampton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab Code\MUImodels\v35Asmita\Training exercise\Training exercise-Southampton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047EF121-6672-4328-A08D-1B58E1C20F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7BDE25-7501-4F7C-90CD-4588B932B5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="2500" windowWidth="21940" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
-  <si>
-    <t>Year</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Difference</t>
   </si>
@@ -97,13 +94,19 @@
   </si>
   <si>
     <t>5 – As 4, with reclamation in 2030</t>
+  </si>
+  <si>
+    <t>cE=0.01</t>
+  </si>
+  <si>
+    <t>cE=0.08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -119,6 +122,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -151,9 +160,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -164,6 +170,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,9 +189,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -222,9 +229,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,26 +264,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,26 +299,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -502,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -523,7 +496,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -541,63 +514,63 @@
     <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
         <v>10000</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>8000</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>10000</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>8000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2020</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <f>B3*200*2</f>
         <v>4000000</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>C3*200*2</f>
         <v>3200000</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f>B5+C5</f>
         <v>7200000</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <f>C5+280000</f>
         <v>3480000</v>
       </c>
@@ -606,39 +579,39 @@
       <c r="A6">
         <v>2030</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>-500000</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="6">
         <v>-200000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>2</v>
       </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>0</v>
+      <c r="A9" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>1900</v>
@@ -647,10 +620,10 @@
         <v>2100</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2">
         <v>1900</v>
@@ -659,395 +632,404 @@
         <v>2100</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>64011700</v>
-      </c>
-      <c r="C11" s="4">
-        <v>64769700</v>
-      </c>
-      <c r="D11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>51400000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>51500000</v>
+      </c>
+      <c r="D11" s="3">
         <f>C11-B11</f>
-        <v>758000</v>
-      </c>
-      <c r="E11" s="8">
+        <v>100000</v>
+      </c>
+      <c r="E11" s="7">
         <f>(D11)/B$11</f>
-        <v>1.1841585210203759E-2</v>
-      </c>
-      <c r="F11" s="4">
-        <v>57129700</v>
-      </c>
-      <c r="G11" s="4">
-        <v>44123700</v>
-      </c>
-      <c r="H11" s="4">
+        <v>1.9455252918287938E-3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>44600000</v>
+      </c>
+      <c r="G11" s="3">
+        <v>30800000</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" ref="H11:H15" si="0">G11-F11</f>
-        <v>-13006000</v>
-      </c>
-      <c r="I11" s="8">
+        <v>-13800000</v>
+      </c>
+      <c r="I11" s="7">
         <f t="shared" ref="I11:I15" si="1">(H11)/F$11</f>
-        <v>-0.22765741812052226</v>
+        <v>-0.3094170403587444</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>65320700</v>
-      </c>
-      <c r="C12" s="4">
-        <v>66900400</v>
-      </c>
-      <c r="D12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>53000000</v>
+      </c>
+      <c r="C12" s="3">
+        <v>52600000</v>
+      </c>
+      <c r="D12" s="3">
         <f>C12-B12</f>
-        <v>1579700</v>
-      </c>
-      <c r="E12" s="8">
+        <v>-400000</v>
+      </c>
+      <c r="E12" s="7">
         <f>(D12)/B$11</f>
-        <v>2.4678300998098784E-2</v>
-      </c>
-      <c r="F12" s="4">
-        <v>59209900</v>
-      </c>
-      <c r="G12" s="4">
-        <v>46238000</v>
-      </c>
-      <c r="H12" s="4">
+        <v>-7.7821011673151752E-3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>46800000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>31900000</v>
+      </c>
+      <c r="H12" s="3">
         <f>G12-F12</f>
-        <v>-12971900</v>
-      </c>
-      <c r="I12" s="8">
+        <v>-14900000</v>
+      </c>
+      <c r="I12" s="7">
         <f t="shared" si="1"/>
-        <v>-0.22706053068719073</v>
+        <v>-0.33408071748878926</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>64011700</v>
-      </c>
-      <c r="C13" s="4">
-        <v>72496900</v>
-      </c>
-      <c r="D13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>54200000</v>
+      </c>
+      <c r="C13" s="3">
+        <v>54700000</v>
+      </c>
+      <c r="D13" s="3">
         <f t="shared" ref="D13" si="2">C13-B13</f>
-        <v>8485200</v>
-      </c>
-      <c r="E13" s="8">
+        <v>500000</v>
+      </c>
+      <c r="E13" s="7">
         <f t="shared" ref="E13:E16" si="3">(D13)/B$11</f>
-        <v>0.13255701692034424</v>
-      </c>
-      <c r="F13" s="4">
-        <v>57129700</v>
-      </c>
-      <c r="G13" s="4">
-        <v>53119900</v>
-      </c>
-      <c r="H13" s="4">
+        <v>9.727626459143969E-3</v>
+      </c>
+      <c r="F13" s="3">
+        <v>47300000</v>
+      </c>
+      <c r="G13" s="3">
+        <v>35400000</v>
+      </c>
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
-        <v>-4009800</v>
-      </c>
-      <c r="I13" s="8">
+        <v>-11900000</v>
+      </c>
+      <c r="I13" s="7">
         <f t="shared" si="1"/>
-        <v>-7.0187660708878219E-2</v>
+        <v>-0.26681614349775784</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4">
-        <v>64011700</v>
-      </c>
-      <c r="C14" s="4">
-        <v>74519500</v>
-      </c>
-      <c r="D14" s="4">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3">
+        <v>54200000</v>
+      </c>
+      <c r="C14" s="3">
+        <v>58600000</v>
+      </c>
+      <c r="D14" s="3">
         <f>C14-B14</f>
-        <v>10507800</v>
-      </c>
-      <c r="E14" s="8">
+        <v>4400000</v>
+      </c>
+      <c r="E14" s="7">
         <f t="shared" si="3"/>
-        <v>0.16415436553005153</v>
-      </c>
-      <c r="F14" s="4">
-        <v>57129700</v>
-      </c>
-      <c r="G14" s="4">
-        <v>55142400</v>
-      </c>
-      <c r="H14" s="4">
+        <v>8.5603112840466927E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>47300000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>39300000</v>
+      </c>
+      <c r="H14" s="3">
         <f>G14-F14</f>
-        <v>-1987300</v>
-      </c>
-      <c r="I14" s="8">
+        <v>-8000000</v>
+      </c>
+      <c r="I14" s="7">
         <f t="shared" si="1"/>
-        <v>-3.4785759421106711E-2</v>
+        <v>-0.17937219730941703</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4">
-        <v>64011700</v>
-      </c>
-      <c r="C15" s="4">
-        <v>74023300</v>
-      </c>
-      <c r="D15" s="4">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3">
+        <v>54200000</v>
+      </c>
+      <c r="C15" s="3">
+        <v>57900000</v>
+      </c>
+      <c r="D15" s="3">
         <f>C15-B15</f>
-        <v>10011600</v>
-      </c>
-      <c r="E15" s="8">
+        <v>3700000</v>
+      </c>
+      <c r="E15" s="7">
         <f t="shared" si="3"/>
-        <v>0.15640265763915034</v>
-      </c>
-      <c r="F15" s="4">
-        <v>57129700</v>
-      </c>
-      <c r="G15" s="4">
-        <v>54674700</v>
-      </c>
-      <c r="H15" s="4">
+        <v>7.1984435797665364E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>47300000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>38700000</v>
+      </c>
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
-        <v>-2455000</v>
-      </c>
-      <c r="I15" s="8">
+        <v>-8600000</v>
+      </c>
+      <c r="I15" s="7">
         <f t="shared" si="1"/>
-        <v>-4.2972394393809177E-2</v>
+        <v>-0.19282511210762332</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <f>C15-C13</f>
-        <v>1526400</v>
-      </c>
-      <c r="D16" s="4">
+        <v>3200000</v>
+      </c>
+      <c r="D16" s="3">
         <f>D14-D13</f>
-        <v>2022600</v>
-      </c>
-      <c r="E16" s="8">
+        <v>3900000</v>
+      </c>
+      <c r="E16" s="7">
         <f t="shared" si="3"/>
-        <v>3.1597348609707289E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+        <v>7.5875486381322951E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19" s="3">
+        <v>51400000</v>
+      </c>
+      <c r="C19" s="3">
+        <v>51500000</v>
+      </c>
+      <c r="D19" s="3">
+        <f>C19-B19</f>
+        <v>100000</v>
+      </c>
+      <c r="E19" s="7">
+        <f>(D19)/B$11</f>
+        <v>1.9455252918287938E-3</v>
+      </c>
+      <c r="F19" s="3">
+        <v>44600000</v>
+      </c>
+      <c r="G19" s="3">
+        <v>30800000</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" ref="H19" si="4">G19-F19</f>
+        <v>-13800000</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" ref="I19:I20" si="5">(H19)/F$11</f>
+        <v>-0.3094170403587444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="4">
-        <v>64011700</v>
-      </c>
-      <c r="C18" s="4">
-        <v>64769700</v>
-      </c>
-      <c r="D18" s="4">
-        <f>C18-B18</f>
-        <v>758000</v>
-      </c>
-      <c r="E18" s="8">
-        <f>(D18)/B$11</f>
-        <v>1.1841585210203759E-2</v>
-      </c>
-      <c r="F18" s="4">
-        <v>57129700</v>
-      </c>
-      <c r="G18" s="4">
-        <v>44123700</v>
-      </c>
-      <c r="H18" s="4">
-        <f t="shared" ref="H18" si="4">G18-F18</f>
-        <v>-13006000</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" ref="I18:I19" si="5">(H18)/F$11</f>
-        <v>-0.22765741812052226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" s="3">
+        <v>53000000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>52600000</v>
+      </c>
+      <c r="D20" s="3">
+        <f>C20-B20</f>
+        <v>-400000</v>
+      </c>
+      <c r="E20" s="7">
+        <f>(D20)/B$11</f>
+        <v>-7.7821011673151752E-3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>46800000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>31900000</v>
+      </c>
+      <c r="H20" s="3">
+        <f>G20-F20</f>
+        <v>-14900000</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="5"/>
+        <v>-0.33408071748878926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="4">
-        <v>65320700</v>
-      </c>
-      <c r="C19" s="4">
-        <v>66900400</v>
-      </c>
-      <c r="D19" s="4">
-        <f>C19-B19</f>
-        <v>1579700</v>
-      </c>
-      <c r="E19" s="8">
-        <f>(D19)/B$11</f>
-        <v>2.4678300998098784E-2</v>
-      </c>
-      <c r="F19" s="4">
-        <v>59209900</v>
-      </c>
-      <c r="G19" s="4">
-        <v>46238000</v>
-      </c>
-      <c r="H19" s="4">
-        <f>G19-F19</f>
-        <v>-12971900</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="5"/>
-        <v>-0.22706053068719073</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="4">
-        <v>64011700</v>
-      </c>
-      <c r="C20" s="4">
-        <v>111095000</v>
-      </c>
-      <c r="D20" s="4">
-        <f>C20-B20</f>
-        <v>47083300</v>
-      </c>
-      <c r="E20" s="8">
-        <f t="shared" ref="E20:E22" si="6">(D20)/B$11</f>
-        <v>0.73554209621053657</v>
-      </c>
-      <c r="F20" s="4">
-        <v>57129700</v>
-      </c>
-      <c r="G20" s="4">
-        <v>91717700</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" ref="H20:H22" si="7">G20-F20</f>
-        <v>34588000</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" ref="I20:I22" si="8">(H20)/F$11</f>
-        <v>0.60542940011937751</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" s="3">
+        <v>51400000</v>
+      </c>
+      <c r="C21" s="3">
+        <v>58100000</v>
+      </c>
+      <c r="D21" s="3">
+        <f>C21-B21</f>
+        <v>6700000</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" ref="E21:E23" si="6">(D21)/B$11</f>
+        <v>0.13035019455252919</v>
+      </c>
+      <c r="F21" s="3">
+        <v>44600000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>39400000</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" ref="H21:H23" si="7">G21-F21</f>
+        <v>-5200000</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" ref="I21:I23" si="8">(H21)/F$11</f>
+        <v>-0.11659192825112108</v>
+      </c>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>51400000</v>
+      </c>
+      <c r="C22" s="3">
+        <v>62300000</v>
+      </c>
+      <c r="D22" s="3">
+        <f>C22-B22</f>
+        <v>10900000</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="6"/>
+        <v>0.21206225680933852</v>
+      </c>
+      <c r="F22" s="3">
+        <v>44600000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>43000000</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="7"/>
+        <v>-1600000</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="8"/>
+        <v>-3.5874439461883408E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
-        <v>64011700</v>
-      </c>
-      <c r="C21" s="4">
-        <v>114667000</v>
-      </c>
-      <c r="D21" s="4">
-        <f>C21-B21</f>
-        <v>50655300</v>
-      </c>
-      <c r="E21" s="8">
+      <c r="B23" s="3">
+        <v>51400000</v>
+      </c>
+      <c r="C23" s="3">
+        <v>61600000</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" ref="D23" si="9">C23-B23</f>
+        <v>10200000</v>
+      </c>
+      <c r="E23" s="7">
         <f t="shared" si="6"/>
-        <v>0.79134439485281594</v>
-      </c>
-      <c r="F21" s="4">
-        <v>57129700</v>
-      </c>
-      <c r="G21" s="4">
-        <v>95290300</v>
-      </c>
-      <c r="H21" s="4">
+        <v>0.19844357976653695</v>
+      </c>
+      <c r="F23" s="3">
+        <v>44600000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>42300000</v>
+      </c>
+      <c r="H23" s="3">
         <f t="shared" si="7"/>
-        <v>38160600</v>
-      </c>
-      <c r="I21" s="8">
+        <v>-2300000</v>
+      </c>
+      <c r="I23" s="7">
         <f t="shared" si="8"/>
-        <v>0.66796429877979402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4">
-        <v>64011700</v>
-      </c>
-      <c r="C22" s="4">
-        <v>114116000</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" ref="D22" si="9">C22-B22</f>
-        <v>50104300</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" si="6"/>
-        <v>0.78273659346650692</v>
-      </c>
-      <c r="F22" s="4">
-        <v>57129700</v>
-      </c>
-      <c r="G22" s="4">
-        <v>94767200</v>
-      </c>
-      <c r="H22" s="4">
-        <f t="shared" si="7"/>
-        <v>37637500</v>
-      </c>
-      <c r="I22" s="8">
-        <f t="shared" si="8"/>
-        <v>0.6588079405283066</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+        <v>-5.1569506726457402E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>